--- a/similarities/split_global/harmonic_similarity_timestamps_69.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab', 'F:7', 'Bb:min7', 'Eb:7']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb', 'G:7', 'C:min7', 'F:7']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.210000', '0:00:17.560000')]</t>
+          <t>('0:00:07.540000', '0:00:20.160000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:15.700000')]</t>
+          <t>('0:00:26.160000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=7.54</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=13.12']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=26.16</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'Ab:7']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000'), ('0:00:14.910000', '0:00:20.600000')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000'), ('0:00:39.160000', '0:00:46.320000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48', 'https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=39.16']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:40.120000', '0:00:47.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:01:08.800000', '0:01:16.200000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:41.520000', '0:00:46.940000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:17.580000')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:24.640000')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:43.340000', '0:00:59.340000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:00:59.730000', '0:01:03.930000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:12.560000', '0:00:19.540000'), ('0:04:14.260000', '0:04:20.200000'), ('0:00:23.040000', '0:00:28.920000')]</t>
+          <t>('0:01:01.380000', '0:01:05.960000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=61.38</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:44.160000', '0:00:58.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:28.640000', '0:01:07.100000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=28.64</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:06.774988', '0:00:12.022698')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:min/A#', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
+          <t>['D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+          <t>('0:00:05.400000', '0:00:12.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+          <t>('0:00:10.937548', '0:00:15.824081')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=5.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=10.937548</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:10.540000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:27.040000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:41.920000', '0:00:54.160000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.129160', '0:00:21.125350')]</t>
+          <t>('0:00:08.080000', '0:00:19.060000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=41.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=11.12916']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:06.900000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:13.560000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
